--- a/responses.xlsx
+++ b/responses.xlsx
@@ -675,43 +675,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
@@ -738,88 +738,88 @@
         <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ2" t="n">
         <v>3</v>
       </c>
       <c r="AK2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
         <v>3</v>
       </c>
       <c r="AR2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -675,154 +675,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="AV2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="AW2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="AX2" t="n">
         <v>5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -801,28 +801,28 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
